--- a/exp/ldv/data/lab_3_numerical_data.xlsx
+++ b/exp/ldv/data/lab_3_numerical_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5D" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Position (mm)</t>
   </si>
@@ -40,7 +40,22 @@
     <t>v_turb</t>
   </si>
   <si>
+    <t>y/d</t>
+  </si>
+  <si>
+    <t>deficits</t>
+  </si>
+  <si>
+    <t>Set 1</t>
+  </si>
+  <si>
+    <t>set2</t>
+  </si>
+  <si>
     <t>Freestream</t>
+  </si>
+  <si>
+    <t>deficit</t>
   </si>
   <si>
     <t>sample error</t>
@@ -151,10 +166,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="J2:J38 M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -185,8 +200,20 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
@@ -210,8 +237,32 @@
         <f aca="false">E2/ABS(B2)</f>
         <v>0.579737335834897</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="0" t="n">
+        <f aca="false">A2/9.5</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">B2/-0.4177</f>
+        <v>0.765621259276993</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">0.0031-C2</f>
+        <v>-0.0442</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>-2.02105263157895</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0.985396217380895</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>-1.76842105263158</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0.963370840316016</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>-24</v>
       </c>
@@ -235,8 +286,32 @@
         <f aca="false">E3/ABS(B3)</f>
         <v>0.589857369255151</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="0" t="n">
+        <f aca="false">A3/95</f>
+        <v>-0.252631578947368</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">B3/-0.4177</f>
+        <v>0.755326789561886</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">0.0031-C3</f>
+        <v>-0.0461</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>-1.76842105263158</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.966243715585348</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>-1.51578947368421</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.925544649269811</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>-48</v>
       </c>
@@ -260,8 +335,32 @@
         <f aca="false">E4/ABS(B4)</f>
         <v>0.517597087378641</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="0" t="n">
+        <f aca="false">A4/95</f>
+        <v>-0.505263157894737</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">B4/-0.4177</f>
+        <v>0.789083073976538</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">0.0031-C4</f>
+        <v>-0.0488</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>-1.51578947368421</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.936078525257362</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>-1.26315789473684</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.89346420876227</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>-72</v>
       </c>
@@ -285,8 +384,32 @@
         <f aca="false">E5/ABS(B5)</f>
         <v>0.425058548009368</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="0" t="n">
+        <f aca="false">A5/95</f>
+        <v>-0.757894736842105</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">B5/-0.4177</f>
+        <v>0.817811826669859</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">0.0031-C5</f>
+        <v>-0.0521</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>-1.26315789473684</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.889154895858271</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>-1.01052631578947</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.841273641369404</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>-96</v>
       </c>
@@ -310,8 +433,32 @@
         <f aca="false">E6/ABS(B6)</f>
         <v>0.329697986577181</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="0" t="n">
+        <f aca="false">A6/95</f>
+        <v>-1.01052631578947</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">B6/-0.4177</f>
+        <v>0.856116830260953</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">0.0031-C6</f>
+        <v>-0.0441</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>-1.01052631578947</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.856116830260953</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>-0.757894736842105</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.834809672013407</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>-120</v>
       </c>
@@ -335,8 +482,32 @@
         <f aca="false">E7/ABS(B7)</f>
         <v>0.24824986537426</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="0" t="n">
+        <f aca="false">A7/95</f>
+        <v>-1.26315789473684</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">B7/-0.4177</f>
+        <v>0.889154895858271</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">0.0031-C7</f>
+        <v>-0.0386</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>-0.757894736842105</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.817811826669859</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>-0.505263157894737</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.778309791716543</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>-144</v>
       </c>
@@ -360,8 +531,32 @@
         <f aca="false">E8/ABS(B8)</f>
         <v>0.160613810741688</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="0" t="n">
+        <f aca="false">A8/95</f>
+        <v>-1.51578947368421</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">B8/-0.4177</f>
+        <v>0.936078525257362</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">0.0031-C8</f>
+        <v>-0.0336</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>-0.505263157894737</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.789083073976538</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>-0.252631578947368</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.764424227914771</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>-168</v>
       </c>
@@ -385,8 +580,32 @@
         <f aca="false">E9/ABS(B9)</f>
         <v>0.103072348860258</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="0" t="n">
+        <f aca="false">A9/95</f>
+        <v>-1.76842105263158</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">B9/-0.4177</f>
+        <v>0.966243715585348</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">0.0031-C9</f>
+        <v>-0.0214</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>-0.252631578947368</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.755326789561886</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.756763227196553</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>-192</v>
       </c>
@@ -410,8 +629,32 @@
         <f aca="false">E10/ABS(B10)</f>
         <v>0.0563654033041788</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="0" t="n">
+        <f aca="false">A10/95</f>
+        <v>-2.02105263157895</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">B10/-0.4177</f>
+        <v>0.985396217380895</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">0.0031-C10</f>
+        <v>-0.0131</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.765621259276993</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.252631578947368</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.783816135982763</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>-168</v>
       </c>
@@ -435,8 +678,32 @@
         <f aca="false">E11/ABS(B11)</f>
         <v>0.0936878727634195</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="0" t="n">
+        <f aca="false">A11/95</f>
+        <v>-1.76842105263158</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">B11/-0.4177</f>
+        <v>0.963370840316016</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">0.0031-C11</f>
+        <v>-0.0246</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.252631578947368</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.791477136700981</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.505263157894737</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.810629638496529</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>-144</v>
       </c>
@@ -460,8 +727,32 @@
         <f aca="false">E12/ABS(B12)</f>
         <v>0.155199172271081</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="0" t="n">
+        <f aca="false">A12/95</f>
+        <v>-1.51578947368421</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">B12/-0.4177</f>
+        <v>0.925544649269811</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">0.0031-C12</f>
+        <v>-0.034</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.505263157894737</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.815178357672971</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.757894736842105</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.836246109648073</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>-120</v>
       </c>
@@ -485,8 +776,32 @@
         <f aca="false">E13/ABS(B13)</f>
         <v>0.236334405144694</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="0" t="n">
+        <f aca="false">A13/95</f>
+        <v>-1.26315789473684</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">B13/-0.4177</f>
+        <v>0.89346420876227</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">0.0031-C13</f>
+        <v>-0.0418</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.757894736842105</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.846540579363179</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1.01052631578947</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.866890112520948</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>-96</v>
       </c>
@@ -510,8 +825,32 @@
         <f aca="false">E14/ABS(B14)</f>
         <v>0.332669322709163</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="0" t="n">
+        <f aca="false">A14/95</f>
+        <v>-1.01052631578947</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">B14/-0.4177</f>
+        <v>0.841273641369404</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">0.0031-C14</f>
+        <v>-0.0509</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>1.01052631578947</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.871199425424946</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1.26315789473684</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.91333492937515</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>-72</v>
       </c>
@@ -535,8 +874,32 @@
         <f aca="false">E15/ABS(B15)</f>
         <v>0.4034987094924</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="0" t="n">
+        <f aca="false">A15/95</f>
+        <v>-0.757894736842105</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">B15/-0.4177</f>
+        <v>0.834809672013407</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">0.0031-C15</f>
+        <v>-0.0494</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>1.26315789473684</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.909983241560929</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>1.51578947368421</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.95475221450802</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>-48</v>
       </c>
@@ -560,8 +923,32 @@
         <f aca="false">E16/ABS(B16)</f>
         <v>0.51245770532144</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="0" t="n">
+        <f aca="false">A16/95</f>
+        <v>-0.505263157894737</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">B16/-0.4177</f>
+        <v>0.778309791716543</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">0.0031-C16</f>
+        <v>-0.0515</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>1.51578947368421</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.947809432607134</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>1.76842105263158</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0.986593248743117</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>-24</v>
       </c>
@@ -585,8 +972,32 @@
         <f aca="false">E17/ABS(B17)</f>
         <v>0.567804572502349</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="0" t="n">
+        <f aca="false">A17/95</f>
+        <v>-0.252631578947368</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">B17/-0.4177</f>
+        <v>0.764424227914771</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">0.0031-C17</f>
+        <v>-0.0464</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>1.76842105263158</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.995690687096002</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>2.02105263157895</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>1.01292793871199</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>0</v>
       </c>
@@ -610,8 +1021,26 @@
         <f aca="false">E18/ABS(B18)</f>
         <v>0.570538772967923</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="0" t="n">
+        <f aca="false">A18/95</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">B18/-0.4177</f>
+        <v>0.768733540818769</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">0.0031-C18</f>
+        <v>-0.0456</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>2.02105263157895</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>1.01292793871199</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>24</v>
       </c>
@@ -635,8 +1064,20 @@
         <f aca="false">E19/ABS(B19)</f>
         <v>0.515426497277677</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="0" t="n">
+        <f aca="false">A19/95</f>
+        <v>0.252631578947368</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">B19/-0.4177</f>
+        <v>0.791477136700981</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">0.0031-C19</f>
+        <v>-0.047</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>48</v>
       </c>
@@ -660,8 +1101,20 @@
         <f aca="false">E20/ABS(B20)</f>
         <v>0.442584434654919</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="0" t="n">
+        <f aca="false">A20/95</f>
+        <v>0.505263157894737</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">B20/-0.4177</f>
+        <v>0.815178357672971</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">0.0031-C20</f>
+        <v>-0.0477</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>72</v>
       </c>
@@ -685,8 +1138,20 @@
         <f aca="false">E21/ABS(B21)</f>
         <v>0.356900452488688</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="0" t="n">
+        <f aca="false">A21/95</f>
+        <v>0.757894736842105</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">B21/-0.4177</f>
+        <v>0.846540579363179</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">0.0031-C21</f>
+        <v>-0.0455</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>96</v>
       </c>
@@ -710,8 +1175,20 @@
         <f aca="false">E22/ABS(B22)</f>
         <v>0.265457543281121</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="0" t="n">
+        <f aca="false">A22/95</f>
+        <v>1.01052631578947</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">B22/-0.4177</f>
+        <v>0.871199425424946</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">0.0031-C22</f>
+        <v>-0.0425</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>120</v>
       </c>
@@ -735,8 +1212,20 @@
         <f aca="false">E23/ABS(B23)</f>
         <v>0.187056037884767</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="0" t="n">
+        <f aca="false">A23/95</f>
+        <v>1.26315789473684</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">B23/-0.4177</f>
+        <v>0.909983241560929</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">0.0031-C23</f>
+        <v>-0.0382</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>144</v>
       </c>
@@ -760,8 +1249,20 @@
         <f aca="false">E24/ABS(B24)</f>
         <v>0.111139176559737</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="0" t="n">
+        <f aca="false">A24/95</f>
+        <v>1.51578947368421</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">B24/-0.4177</f>
+        <v>0.947809432607134</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">0.0031-C24</f>
+        <v>-0.0292</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>168</v>
       </c>
@@ -785,8 +1286,20 @@
         <f aca="false">E25/ABS(B25)</f>
         <v>0.0622745852368358</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="0" t="n">
+        <f aca="false">A25/95</f>
+        <v>1.76842105263158</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">B25/-0.4177</f>
+        <v>0.995690687096002</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">0.0031-C25</f>
+        <v>-0.0174</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>192</v>
       </c>
@@ -810,8 +1323,20 @@
         <f aca="false">E26/ABS(B26)</f>
         <v>0.0423067832663673</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="0" t="n">
+        <f aca="false">A26/95</f>
+        <v>2.02105263157895</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">B26/-0.4177</f>
+        <v>1.01292793871199</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">0.0031-C26</f>
+        <v>-0.013</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>168</v>
       </c>
@@ -835,8 +1360,20 @@
         <f aca="false">E27/ABS(B27)</f>
         <v>0.063819461295802</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="0" t="n">
+        <f aca="false">A27/95</f>
+        <v>1.76842105263158</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">B27/-0.4177</f>
+        <v>0.986593248743117</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">0.0031-C27</f>
+        <v>-0.0218</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>144</v>
       </c>
@@ -860,8 +1397,20 @@
         <f aca="false">E28/ABS(B28)</f>
         <v>0.103059177532598</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="0" t="n">
+        <f aca="false">A28/95</f>
+        <v>1.51578947368421</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">B28/-0.4177</f>
+        <v>0.95475221450802</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">0.0031-C28</f>
+        <v>-0.0238</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>120</v>
       </c>
@@ -885,8 +1434,20 @@
         <f aca="false">E29/ABS(B29)</f>
         <v>0.187155963302752</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="0" t="n">
+        <f aca="false">A29/95</f>
+        <v>1.26315789473684</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">B29/-0.4177</f>
+        <v>0.91333492937515</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">0.0031-C29</f>
+        <v>-0.0373</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>96</v>
       </c>
@@ -910,8 +1471,20 @@
         <f aca="false">E30/ABS(B30)</f>
         <v>0.269538801436067</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="0" t="n">
+        <f aca="false">A30/95</f>
+        <v>1.01052631578947</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">B30/-0.4177</f>
+        <v>0.866890112520948</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">0.0031-C30</f>
+        <v>-0.0391</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>72</v>
       </c>
@@ -935,8 +1508,20 @@
         <f aca="false">E31/ABS(B31)</f>
         <v>0.372459204122531</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="0" t="n">
+        <f aca="false">A31/95</f>
+        <v>0.757894736842105</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">B31/-0.4177</f>
+        <v>0.836246109648073</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">0.0031-C31</f>
+        <v>-0.0491</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>48</v>
       </c>
@@ -960,8 +1545,20 @@
         <f aca="false">E32/ABS(B32)</f>
         <v>0.43502658003544</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="0" t="n">
+        <f aca="false">A32/95</f>
+        <v>0.505263157894737</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">B32/-0.4177</f>
+        <v>0.810629638496529</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">0.0031-C32</f>
+        <v>-0.049</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>24</v>
       </c>
@@ -985,8 +1582,20 @@
         <f aca="false">E33/ABS(B33)</f>
         <v>0.521686010995724</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="0" t="n">
+        <f aca="false">A33/95</f>
+        <v>0.252631578947368</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">B33/-0.4177</f>
+        <v>0.783816135982763</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">0.0031-C33</f>
+        <v>-0.0466</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>0</v>
       </c>
@@ -1010,10 +1619,22 @@
         <f aca="false">E34/ABS(B34)</f>
         <v>0.587472318886428</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">A34/9.5</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">B34/-0.4177</f>
+        <v>0.756763227196553</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">0.0031-C34</f>
+        <v>-0.0457</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>-0.4177</v>
@@ -1052,10 +1673,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1086,8 +1707,11 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
@@ -1111,8 +1735,12 @@
         <f aca="false">E2/ABS(B2)</f>
         <v>0.385686528497409</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="0" t="n">
+        <f aca="false">B2/-0.4177</f>
+        <v>0.739286569308116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>-24</v>
       </c>
@@ -1136,8 +1764,12 @@
         <f aca="false">E3/ABS(B3)</f>
         <v>0.395913154533844</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="0" t="n">
+        <f aca="false">B3/-0.4177</f>
+        <v>0.749820445295667</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>-48</v>
       </c>
@@ -1161,8 +1793,12 @@
         <f aca="false">E4/ABS(B4)</f>
         <v>0.353566009104704</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="0" t="n">
+        <f aca="false">B4/-0.4177</f>
+        <v>0.788843667704094</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>-72</v>
       </c>
@@ -1186,8 +1822,12 @@
         <f aca="false">E5/ABS(B5)</f>
         <v>0.295745920745921</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="0" t="n">
+        <f aca="false">B5/-0.4177</f>
+        <v>0.821642327028968</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>-96</v>
       </c>
@@ -1211,8 +1851,12 @@
         <f aca="false">E6/ABS(B6)</f>
         <v>0.246062992125984</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="0" t="n">
+        <f aca="false">B6/-0.4177</f>
+        <v>0.851328704812066</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>-120</v>
       </c>
@@ -1236,8 +1880,12 @@
         <f aca="false">E7/ABS(B7)</f>
         <v>0.205273069679849</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="0" t="n">
+        <f aca="false">B7/-0.4177</f>
+        <v>0.889873114675605</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>-144</v>
       </c>
@@ -1261,8 +1909,12 @@
         <f aca="false">E8/ABS(B8)</f>
         <v>0.166623275188753</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" s="0" t="n">
+        <f aca="false">B8/-0.4177</f>
+        <v>0.919559492458702</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>-168</v>
       </c>
@@ -1286,8 +1938,12 @@
         <f aca="false">E9/ABS(B9)</f>
         <v>0.137024751212044</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="0" t="n">
+        <f aca="false">B9/-0.4177</f>
+        <v>0.938233181709361</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>-192</v>
       </c>
@@ -1311,8 +1967,12 @@
         <f aca="false">E10/ABS(B10)</f>
         <v>0.123301459486663</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="0" t="n">
+        <f aca="false">B10/-0.4177</f>
+        <v>0.951400526693799</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>-216</v>
       </c>
@@ -1336,8 +1996,12 @@
         <f aca="false">E11/ABS(B11)</f>
         <v>0.0863080684596577</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="0" t="n">
+        <f aca="false">B11/-0.4177</f>
+        <v>0.979171654297343</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>-192</v>
       </c>
@@ -1361,8 +2025,12 @@
         <f aca="false">E12/ABS(B12)</f>
         <v>0.120368067644864</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="0" t="n">
+        <f aca="false">B12/-0.4177</f>
+        <v>0.962652621498683</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>-168</v>
       </c>
@@ -1386,8 +2054,12 @@
         <f aca="false">E13/ABS(B13)</f>
         <v>0.137516005121639</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="0" t="n">
+        <f aca="false">B13/-0.4177</f>
+        <v>0.93488149389514</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>-144</v>
       </c>
@@ -1411,8 +2083,12 @@
         <f aca="false">E14/ABS(B14)</f>
         <v>0.167057597081053</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="0" t="n">
+        <f aca="false">B14/-0.4177</f>
+        <v>0.918601867368925</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>-120</v>
       </c>
@@ -1436,8 +2112,12 @@
         <f aca="false">E15/ABS(B15)</f>
         <v>0.206905853790127</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="0" t="n">
+        <f aca="false">B15/-0.4177</f>
+        <v>0.887479051951161</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>-96</v>
       </c>
@@ -1461,8 +2141,12 @@
         <f aca="false">E16/ABS(B16)</f>
         <v>0.246295778585407</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="0" t="n">
+        <f aca="false">B16/-0.4177</f>
+        <v>0.856356236533397</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>-72</v>
       </c>
@@ -1486,8 +2170,12 @@
         <f aca="false">E17/ABS(B17)</f>
         <v>0.309253731343284</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="0" t="n">
+        <f aca="false">B17/-0.4177</f>
+        <v>0.802011012688532</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>-48</v>
       </c>
@@ -1511,8 +2199,12 @@
         <f aca="false">E18/ABS(B18)</f>
         <v>0.348517273005197</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="0" t="n">
+        <f aca="false">B18/-0.4177</f>
+        <v>0.78309791716543</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>-24</v>
       </c>
@@ -1536,8 +2228,12 @@
         <f aca="false">E19/ABS(B19)</f>
         <v>0.383587786259542</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="0" t="n">
+        <f aca="false">B19/-0.4177</f>
+        <v>0.752693320564999</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>0</v>
       </c>
@@ -1561,8 +2257,12 @@
         <f aca="false">E20/ABS(B20)</f>
         <v>0.400064370775668</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="0" t="n">
+        <f aca="false">B20/-0.4177</f>
+        <v>0.743835288484558</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>24</v>
       </c>
@@ -1586,8 +2286,12 @@
         <f aca="false">E21/ABS(B21)</f>
         <v>0.359962698165993</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="0" t="n">
+        <f aca="false">B21/-0.4177</f>
+        <v>0.770169978453436</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>48</v>
       </c>
@@ -1611,8 +2315,12 @@
         <f aca="false">E22/ABS(B22)</f>
         <v>0.308892815076561</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="0" t="n">
+        <f aca="false">B22/-0.4177</f>
+        <v>0.813023701220972</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>72</v>
       </c>
@@ -1636,8 +2344,12 @@
         <f aca="false">E23/ABS(B23)</f>
         <v>0.270177447052089</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="0" t="n">
+        <f aca="false">B23/-0.4177</f>
+        <v>0.836485515920517</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>96</v>
       </c>
@@ -1661,8 +2373,12 @@
         <f aca="false">E24/ABS(B24)</f>
         <v>0.209302325581395</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="0" t="n">
+        <f aca="false">B24/-0.4177</f>
+        <v>0.875029925784056</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>120</v>
       </c>
@@ -1686,8 +2402,12 @@
         <f aca="false">E25/ABS(B25)</f>
         <v>0.179112410310922</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="0" t="n">
+        <f aca="false">B25/-0.4177</f>
+        <v>0.900885803208044</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>144</v>
       </c>
@@ -1711,8 +2431,12 @@
         <f aca="false">E26/ABS(B26)</f>
         <v>0.142300701116593</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="0" t="n">
+        <f aca="false">B26/-0.4177</f>
+        <v>0.921953555183146</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>168</v>
       </c>
@@ -1736,8 +2460,12 @@
         <f aca="false">E27/ABS(B27)</f>
         <v>0.132394366197183</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="0" t="n">
+        <f aca="false">B27/-0.4177</f>
+        <v>0.93488149389514</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>192</v>
       </c>
@@ -1761,8 +2489,12 @@
         <f aca="false">E28/ABS(B28)</f>
         <v>0.106538752840192</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="0" t="n">
+        <f aca="false">B28/-0.4177</f>
+        <v>0.948288245152023</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>216</v>
       </c>
@@ -1786,8 +2518,12 @@
         <f aca="false">E29/ABS(B29)</f>
         <v>0.0689655172413793</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="0" t="n">
+        <f aca="false">B29/-0.4177</f>
+        <v>0.971989466124012</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>192</v>
       </c>
@@ -1811,8 +2547,12 @@
         <f aca="false">E30/ABS(B30)</f>
         <v>0.0999244903095897</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="0" t="n">
+        <f aca="false">B30/-0.4177</f>
+        <v>0.951161120421355</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>168</v>
       </c>
@@ -1836,8 +2576,12 @@
         <f aca="false">E31/ABS(B31)</f>
         <v>0.128637059724349</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="0" t="n">
+        <f aca="false">B31/-0.4177</f>
+        <v>0.937993775436916</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>144</v>
       </c>
@@ -1861,8 +2605,12 @@
         <f aca="false">E32/ABS(B32)</f>
         <v>0.149832084732627</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="0" t="n">
+        <f aca="false">B32/-0.4177</f>
+        <v>0.926741680632033</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>120</v>
       </c>
@@ -1886,8 +2634,12 @@
         <f aca="false">E33/ABS(B33)</f>
         <v>0.172413793103448</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" s="0" t="n">
+        <f aca="false">B33/-0.4177</f>
+        <v>0.902561647115154</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>96</v>
       </c>
@@ -1911,8 +2663,12 @@
         <f aca="false">E34/ABS(B34)</f>
         <v>0.216994187655688</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="0" t="n">
+        <f aca="false">B34/-0.4177</f>
+        <v>0.864974862341393</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>72</v>
       </c>
@@ -1936,8 +2692,12 @@
         <f aca="false">E35/ABS(B35)</f>
         <v>0.264984227129338</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="0" t="n">
+        <f aca="false">B35/-0.4177</f>
+        <v>0.834809672013407</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>48</v>
       </c>
@@ -1961,8 +2721,12 @@
         <f aca="false">E36/ABS(B36)</f>
         <v>0.314209274673008</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="0" t="n">
+        <f aca="false">B36/-0.4177</f>
+        <v>0.805362700502753</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>24</v>
       </c>
@@ -1986,8 +2750,12 @@
         <f aca="false">E37/ABS(B37)</f>
         <v>0.354660104583205</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="0" t="n">
+        <f aca="false">B37/-0.4177</f>
+        <v>0.778309791716543</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>0</v>
       </c>
@@ -2011,10 +2779,14 @@
         <f aca="false">E38/ABS(B38)</f>
         <v>0.400255346313438</v>
       </c>
+      <c r="J38" s="0" t="n">
+        <f aca="false">B38/-0.4177</f>
+        <v>0.750059851568111</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>-0.4177</v>
@@ -2055,8 +2827,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="J2:J38 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2321,7 +3093,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">2*STDEV(B2:B7)/SQRT(5)</f>

--- a/exp/ldv/data/lab_3_numerical_data.xlsx
+++ b/exp/ldv/data/lab_3_numerical_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="902" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5D" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Position (mm)</t>
   </si>
@@ -169,7 +169,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="J2:J38 M2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="K2:K38 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1673,10 +1673,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:J38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1710,6 +1710,9 @@
       <c r="J1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -1739,6 +1742,10 @@
         <f aca="false">B2/-0.4177</f>
         <v>0.739286569308116</v>
       </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">A2/95</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1768,6 +1775,10 @@
         <f aca="false">B3/-0.4177</f>
         <v>0.749820445295667</v>
       </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">A3/95</f>
+        <v>-0.252631578947368</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1797,6 +1808,10 @@
         <f aca="false">B4/-0.4177</f>
         <v>0.788843667704094</v>
       </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">A4/95</f>
+        <v>-0.505263157894737</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1826,6 +1841,10 @@
         <f aca="false">B5/-0.4177</f>
         <v>0.821642327028968</v>
       </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">A5/95</f>
+        <v>-0.757894736842105</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1855,6 +1874,10 @@
         <f aca="false">B6/-0.4177</f>
         <v>0.851328704812066</v>
       </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">A6/95</f>
+        <v>-1.01052631578947</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1884,6 +1907,10 @@
         <f aca="false">B7/-0.4177</f>
         <v>0.889873114675605</v>
       </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">A7/95</f>
+        <v>-1.26315789473684</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1913,6 +1940,10 @@
         <f aca="false">B8/-0.4177</f>
         <v>0.919559492458702</v>
       </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">A8/95</f>
+        <v>-1.51578947368421</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1942,6 +1973,10 @@
         <f aca="false">B9/-0.4177</f>
         <v>0.938233181709361</v>
       </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">A9/95</f>
+        <v>-1.76842105263158</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1971,6 +2006,10 @@
         <f aca="false">B10/-0.4177</f>
         <v>0.951400526693799</v>
       </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">A10/95</f>
+        <v>-2.02105263157895</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -2000,6 +2039,10 @@
         <f aca="false">B11/-0.4177</f>
         <v>0.979171654297343</v>
       </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">A11/95</f>
+        <v>-2.27368421052632</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -2029,6 +2072,10 @@
         <f aca="false">B12/-0.4177</f>
         <v>0.962652621498683</v>
       </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">A12/95</f>
+        <v>-2.02105263157895</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -2058,6 +2105,10 @@
         <f aca="false">B13/-0.4177</f>
         <v>0.93488149389514</v>
       </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">A13/95</f>
+        <v>-1.76842105263158</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -2087,6 +2138,10 @@
         <f aca="false">B14/-0.4177</f>
         <v>0.918601867368925</v>
       </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">A14/95</f>
+        <v>-1.51578947368421</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -2116,6 +2171,10 @@
         <f aca="false">B15/-0.4177</f>
         <v>0.887479051951161</v>
       </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">A15/95</f>
+        <v>-1.26315789473684</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2145,6 +2204,10 @@
         <f aca="false">B16/-0.4177</f>
         <v>0.856356236533397</v>
       </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">A16/95</f>
+        <v>-1.01052631578947</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2174,6 +2237,10 @@
         <f aca="false">B17/-0.4177</f>
         <v>0.802011012688532</v>
       </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">A17/95</f>
+        <v>-0.757894736842105</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -2203,6 +2270,10 @@
         <f aca="false">B18/-0.4177</f>
         <v>0.78309791716543</v>
       </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">A18/95</f>
+        <v>-0.505263157894737</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2232,6 +2303,10 @@
         <f aca="false">B19/-0.4177</f>
         <v>0.752693320564999</v>
       </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">A19/95</f>
+        <v>-0.252631578947368</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -2261,6 +2336,10 @@
         <f aca="false">B20/-0.4177</f>
         <v>0.743835288484558</v>
       </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">A20/95</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2290,6 +2369,10 @@
         <f aca="false">B21/-0.4177</f>
         <v>0.770169978453436</v>
       </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">A21/95</f>
+        <v>0.252631578947368</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -2319,6 +2402,10 @@
         <f aca="false">B22/-0.4177</f>
         <v>0.813023701220972</v>
       </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">A22/95</f>
+        <v>0.505263157894737</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -2348,6 +2435,10 @@
         <f aca="false">B23/-0.4177</f>
         <v>0.836485515920517</v>
       </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">A23/95</f>
+        <v>0.757894736842105</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -2377,6 +2468,10 @@
         <f aca="false">B24/-0.4177</f>
         <v>0.875029925784056</v>
       </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">A24/95</f>
+        <v>1.01052631578947</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -2406,6 +2501,10 @@
         <f aca="false">B25/-0.4177</f>
         <v>0.900885803208044</v>
       </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">A25/95</f>
+        <v>1.26315789473684</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -2435,6 +2534,10 @@
         <f aca="false">B26/-0.4177</f>
         <v>0.921953555183146</v>
       </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">A26/95</f>
+        <v>1.51578947368421</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -2464,6 +2567,10 @@
         <f aca="false">B27/-0.4177</f>
         <v>0.93488149389514</v>
       </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">A27/95</f>
+        <v>1.76842105263158</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -2493,6 +2600,10 @@
         <f aca="false">B28/-0.4177</f>
         <v>0.948288245152023</v>
       </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">A28/95</f>
+        <v>2.02105263157895</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -2522,6 +2633,10 @@
         <f aca="false">B29/-0.4177</f>
         <v>0.971989466124012</v>
       </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">A29/95</f>
+        <v>2.27368421052632</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -2551,6 +2666,10 @@
         <f aca="false">B30/-0.4177</f>
         <v>0.951161120421355</v>
       </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">A30/95</f>
+        <v>2.02105263157895</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -2580,6 +2699,10 @@
         <f aca="false">B31/-0.4177</f>
         <v>0.937993775436916</v>
       </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">A31/95</f>
+        <v>1.76842105263158</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -2609,6 +2732,10 @@
         <f aca="false">B32/-0.4177</f>
         <v>0.926741680632033</v>
       </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">A32/95</f>
+        <v>1.51578947368421</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -2638,6 +2765,10 @@
         <f aca="false">B33/-0.4177</f>
         <v>0.902561647115154</v>
       </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">A33/95</f>
+        <v>1.26315789473684</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -2667,6 +2798,10 @@
         <f aca="false">B34/-0.4177</f>
         <v>0.864974862341393</v>
       </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">A34/95</f>
+        <v>1.01052631578947</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -2696,6 +2831,10 @@
         <f aca="false">B35/-0.4177</f>
         <v>0.834809672013407</v>
       </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">A35/95</f>
+        <v>0.757894736842105</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -2725,6 +2864,10 @@
         <f aca="false">B36/-0.4177</f>
         <v>0.805362700502753</v>
       </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">A36/95</f>
+        <v>0.505263157894737</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -2754,6 +2897,10 @@
         <f aca="false">B37/-0.4177</f>
         <v>0.778309791716543</v>
       </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">A37/95</f>
+        <v>0.252631578947368</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -2782,6 +2929,10 @@
       <c r="J38" s="0" t="n">
         <f aca="false">B38/-0.4177</f>
         <v>0.750059851568111</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">A38/95</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,7 +2979,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="J2:J38 D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="K2:K38 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/exp/ldv/data/lab_3_numerical_data.xlsx
+++ b/exp/ldv/data/lab_3_numerical_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="902" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="759" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="5D" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Position (mm)</t>
   </si>
@@ -52,10 +52,19 @@
     <t>set2</t>
   </si>
   <si>
+    <t>vmean</t>
+  </si>
+  <si>
+    <t>vrms</t>
+  </si>
+  <si>
     <t>Freestream</t>
   </si>
   <si>
     <t>deficit</t>
+  </si>
+  <si>
+    <t>vmea</t>
   </si>
   <si>
     <t>sample error</t>
@@ -166,19 +175,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="K2:K38 H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2:V34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8520408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.81122448979592"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -211,6 +220,12 @@
       </c>
       <c r="P1" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,6 +276,20 @@
       <c r="Q2" s="0" t="n">
         <v>0.963370840316016</v>
       </c>
+      <c r="R2" s="0" t="n">
+        <v>-2.02105263157895</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">D2/-0.41</f>
+        <v>0.0631707317073171</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <f aca="false">(E2/-0.41)^2</f>
+        <v>0.204480428316478</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -310,6 +339,17 @@
       <c r="Q3" s="0" t="n">
         <v>0.925544649269811</v>
       </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">D3/-0.41</f>
+        <v>0.0268292682926829</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>-0.252631578947368</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <f aca="false">(E3/-0.41)^2</f>
+        <v>0.20602742415229</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -359,6 +399,20 @@
       <c r="Q4" s="0" t="n">
         <v>0.89346420876227</v>
       </c>
+      <c r="R4" s="0" t="n">
+        <v>-1.76842105263158</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">D4/-0.41</f>
+        <v>-0.011219512195122</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>-0.505263157894737</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <f aca="false">(E4/-0.41)^2</f>
+        <v>0.173137180249851</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -408,6 +462,17 @@
       <c r="Q5" s="0" t="n">
         <v>0.841273641369404</v>
       </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">D5/-0.41</f>
+        <v>-0.00439024390243903</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>-0.757894736842105</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <f aca="false">(E5/-0.41)^2</f>
+        <v>0.125419631171921</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -457,6 +522,20 @@
       <c r="Q6" s="0" t="n">
         <v>0.834809672013407</v>
       </c>
+      <c r="R6" s="0" t="n">
+        <v>-1.51578947368421</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">D6/-0.41</f>
+        <v>-0.0197560975609756</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>-1.01052631578947</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <f aca="false">(E6/-0.41)^2</f>
+        <v>0.0826913146936347</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -506,6 +585,17 @@
       <c r="Q7" s="0" t="n">
         <v>0.778309791716543</v>
       </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">D7/-0.41</f>
+        <v>-0.0124390243902439</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>-1.26315789473684</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <f aca="false">(E7/-0.41)^2</f>
+        <v>0.0505701368233195</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -555,6 +645,20 @@
       <c r="Q8" s="0" t="n">
         <v>0.764424227914771</v>
       </c>
+      <c r="R8" s="0" t="n">
+        <v>-1.26315789473684</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">D8/-0.41</f>
+        <v>-0.0219512195121951</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>-1.51578947368421</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <f aca="false">(E8/-0.41)^2</f>
+        <v>0.0234612730517549</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -604,6 +708,17 @@
       <c r="Q9" s="0" t="n">
         <v>0.756763227196553</v>
       </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">D9/-0.41</f>
+        <v>-0.0197560975609756</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>-1.76842105263158</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <f aca="false">(E9/-0.41)^2</f>
+        <v>0.0102948245092207</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -653,6 +768,20 @@
       <c r="Q10" s="0" t="n">
         <v>0.783816135982763</v>
       </c>
+      <c r="R10" s="0" t="n">
+        <v>-1.01052631578947</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">D10/-0.41</f>
+        <v>-0.0197560975609756</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>-2.02105263157895</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <f aca="false">(E10/-0.41)^2</f>
+        <v>0.00320190362879238</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -702,6 +831,17 @@
       <c r="Q11" s="0" t="n">
         <v>0.810629638496529</v>
       </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">D11/-0.41</f>
+        <v>-0.0209756097560976</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>-1.76842105263158</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <f aca="false">(E11/-0.41)^2</f>
+        <v>0.00845502676977989</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -751,6 +891,20 @@
       <c r="Q12" s="0" t="n">
         <v>0.836246109648073</v>
       </c>
+      <c r="R12" s="0" t="n">
+        <v>-0.757894736842105</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">D12/-0.41</f>
+        <v>-0.0302439024390244</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>-1.51578947368421</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <f aca="false">(E12/-0.41)^2</f>
+        <v>0.0214158239143367</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -800,6 +954,17 @@
       <c r="Q13" s="0" t="n">
         <v>0.866890112520948</v>
       </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">D13/-0.41</f>
+        <v>-0.0334146341463415</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>-1.26315789473684</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <f aca="false">(E13/-0.41)^2</f>
+        <v>0.0462774538964902</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -849,6 +1014,20 @@
       <c r="Q14" s="0" t="n">
         <v>0.91333492937515</v>
       </c>
+      <c r="R14" s="0" t="n">
+        <v>-0.505263157894737</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <f aca="false">D14/-0.41</f>
+        <v>-0.0163414634146341</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>-1.01052631578947</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <f aca="false">(E14/-0.41)^2</f>
+        <v>0.0812945270672219</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -898,6 +1077,17 @@
       <c r="Q15" s="0" t="n">
         <v>0.95475221450802</v>
       </c>
+      <c r="T15" s="0" t="n">
+        <f aca="false">D15/-0.41</f>
+        <v>-0.0302439024390244</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>-0.757894736842105</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <f aca="false">(E15/-0.41)^2</f>
+        <v>0.117766151100535</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -947,6 +1137,20 @@
       <c r="Q16" s="0" t="n">
         <v>0.986593248743117</v>
       </c>
+      <c r="R16" s="0" t="n">
+        <v>-0.252631578947368</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <f aca="false">D16/-0.41</f>
+        <v>-0.00365853658536585</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>-0.505263157894737</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <f aca="false">(E16/-0.41)^2</f>
+        <v>0.165113384889946</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -996,6 +1200,17 @@
       <c r="Q17" s="0" t="n">
         <v>1.01292793871199</v>
       </c>
+      <c r="T17" s="0" t="n">
+        <f aca="false">D17/-0.41</f>
+        <v>-0.00902439024390244</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>-0.252631578947368</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <f aca="false">(E17/-0.41)^2</f>
+        <v>0.195536525877454</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -1039,6 +1254,17 @@
       <c r="N18" s="0" t="n">
         <v>1.01292793871199</v>
       </c>
+      <c r="T18" s="0" t="n">
+        <f aca="false">D18/-0.41</f>
+        <v>0.0358536585365854</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <f aca="false">(E18/-0.41)^2</f>
+        <v>0.199656395002974</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -1076,6 +1302,20 @@
         <f aca="false">0.0031-C19</f>
         <v>-0.047</v>
       </c>
+      <c r="R19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <f aca="false">D19/-0.41</f>
+        <v>0.0209756097560976</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>0.252631578947368</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <f aca="false">(E19/-0.41)^2</f>
+        <v>0.172731469363474</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -1113,6 +1353,17 @@
         <f aca="false">0.0031-C20</f>
         <v>-0.0477</v>
       </c>
+      <c r="T20" s="0" t="n">
+        <f aca="false">D20/-0.41</f>
+        <v>0.0207317073170732</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>0.505263157894737</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <f aca="false">(E20/-0.41)^2</f>
+        <v>0.135101070791196</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -1150,6 +1401,20 @@
         <f aca="false">0.0031-C21</f>
         <v>-0.0455</v>
       </c>
+      <c r="R21" s="0" t="n">
+        <v>0.252631578947368</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <f aca="false">D21/-0.41</f>
+        <v>0.0258536585365854</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>0.757894736842105</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <f aca="false">(E21/-0.41)^2</f>
+        <v>0.0947438429506246</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -1187,6 +1452,17 @@
         <f aca="false">0.0031-C22</f>
         <v>-0.0425</v>
       </c>
+      <c r="T22" s="0" t="n">
+        <f aca="false">D22/-0.41</f>
+        <v>0.0265853658536585</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>1.01052631578947</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <f aca="false">(E22/-0.41)^2</f>
+        <v>0.0555119571683522</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -1224,6 +1500,20 @@
         <f aca="false">0.0031-C23</f>
         <v>-0.0382</v>
       </c>
+      <c r="R23" s="0" t="n">
+        <v>0.505263157894737</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <f aca="false">D23/-0.41</f>
+        <v>0.0178048780487805</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>1.26315789473684</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <f aca="false">(E23/-0.41)^2</f>
+        <v>0.0300726353361095</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -1261,6 +1551,17 @@
         <f aca="false">0.0031-C24</f>
         <v>-0.0292</v>
       </c>
+      <c r="T24" s="0" t="n">
+        <f aca="false">D24/-0.41</f>
+        <v>0.015609756097561</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>1.51578947368421</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <f aca="false">(E24/-0.41)^2</f>
+        <v>0.0115169541939322</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -1298,6 +1599,20 @@
         <f aca="false">0.0031-C25</f>
         <v>-0.0174</v>
       </c>
+      <c r="R25" s="0" t="n">
+        <v>0.757894736842105</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <f aca="false">D25/-0.41</f>
+        <v>0.0121951219512195</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>1.76842105263158</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <f aca="false">(E25/-0.41)^2</f>
+        <v>0.00399054134443783</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -1335,6 +1650,17 @@
         <f aca="false">0.0031-C26</f>
         <v>-0.013</v>
       </c>
+      <c r="T26" s="0" t="n">
+        <f aca="false">D26/-0.41</f>
+        <v>0.00292682926829268</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>2.02105263157895</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <f aca="false">(E26/-0.41)^2</f>
+        <v>0.00190606781677573</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -1372,6 +1698,20 @@
         <f aca="false">0.0031-C27</f>
         <v>-0.0218</v>
       </c>
+      <c r="R27" s="0" t="n">
+        <v>1.01052631578947</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <f aca="false">D27/-0.41</f>
+        <v>0.00853658536585366</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>1.76842105263158</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <f aca="false">(E27/-0.41)^2</f>
+        <v>0.00411475312314099</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -1409,6 +1749,17 @@
         <f aca="false">0.0031-C28</f>
         <v>-0.0238</v>
       </c>
+      <c r="T28" s="0" t="n">
+        <f aca="false">D28/-0.41</f>
+        <v>0.0153658536585366</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>1.51578947368421</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <f aca="false">(E28/-0.41)^2</f>
+        <v>0.0100488399762046</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -1446,6 +1797,20 @@
         <f aca="false">0.0031-C29</f>
         <v>-0.0373</v>
       </c>
+      <c r="R29" s="0" t="n">
+        <v>1.26315789473684</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <f aca="false">D29/-0.41</f>
+        <v>0.0102439024390244</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>1.26315789473684</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <f aca="false">(E29/-0.41)^2</f>
+        <v>0.0303269482450922</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -1483,6 +1848,17 @@
         <f aca="false">0.0031-C30</f>
         <v>-0.0391</v>
       </c>
+      <c r="T30" s="0" t="n">
+        <f aca="false">D30/-0.41</f>
+        <v>0.02</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>1.01052631578947</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <f aca="false">(E30/-0.41)^2</f>
+        <v>0.0566672218917311</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -1520,6 +1896,20 @@
         <f aca="false">0.0031-C31</f>
         <v>-0.0491</v>
       </c>
+      <c r="R31" s="0" t="n">
+        <v>1.51578947368421</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <f aca="false">D31/-0.41</f>
+        <v>0.00634146341463415</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>0.757894736842105</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <f aca="false">(E31/-0.41)^2</f>
+        <v>0.10069012492564</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -1557,6 +1947,17 @@
         <f aca="false">0.0031-C32</f>
         <v>-0.049</v>
       </c>
+      <c r="T32" s="0" t="n">
+        <f aca="false">D32/-0.41</f>
+        <v>0.02</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>0.505263157894737</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <f aca="false">(E32/-0.41)^2</f>
+        <v>0.129073706127305</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -1594,6 +1995,20 @@
         <f aca="false">0.0031-C33</f>
         <v>-0.0466</v>
       </c>
+      <c r="R33" s="0" t="n">
+        <v>1.76842105263158</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <f aca="false">D33/-0.41</f>
+        <v>0.0390243902439024</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0.252631578947368</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <f aca="false">(E33/-0.41)^2</f>
+        <v>0.173543367043427</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -1631,10 +2046,24 @@
         <f aca="false">0.0031-C34</f>
         <v>-0.0457</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R34" s="0" t="n">
+        <v>2.02105263157895</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <f aca="false">D34/-0.41</f>
+        <v>0.0214634146341463</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <f aca="false">(E34/-0.41)^2</f>
+        <v>0.205142712671029</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>-0.4177</v>
@@ -1673,10 +2102,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="1" sqref="V2:V34 P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1708,10 +2137,16 @@
         <v>6</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,6 +2181,23 @@
         <f aca="false">A2/95</f>
         <v>0</v>
       </c>
+      <c r="M2" s="0" t="n">
+        <v>2.27368421052632</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">D2/-0.4177</f>
+        <v>0.00406990663155375</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">(E2/-0.4177)^2</f>
+        <v>0.0813007538288525</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1779,6 +2231,23 @@
         <f aca="false">A3/95</f>
         <v>-0.252631578947368</v>
       </c>
+      <c r="M3" s="0" t="n">
+        <v>2.02105263157895</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.0282</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">D3/-0.4177</f>
+        <v>0.00598515681110845</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>-0.252631578947368</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">(E3/-0.4177)^2</f>
+        <v>0.088128102588081</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1812,6 +2281,17 @@
         <f aca="false">A4/95</f>
         <v>-0.505263157894737</v>
       </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">D4/-0.4177</f>
+        <v>0.0234618146995451</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>-0.505263157894737</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">(E4/-0.4177)^2</f>
+        <v>0.0777898439354242</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1845,6 +2325,23 @@
         <f aca="false">A5/95</f>
         <v>-0.757894736842105</v>
       </c>
+      <c r="M5" s="0" t="n">
+        <v>1.76842105263158</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.0299</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">D5/-0.4177</f>
+        <v>0.00861862580799617</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>-0.757894736842105</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">(E5/-0.4177)^2</f>
+        <v>0.0590477201410027</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1878,6 +2375,17 @@
         <f aca="false">A6/95</f>
         <v>-1.01052631578947</v>
       </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">D6/-0.4177</f>
+        <v>0.0239406272444338</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>-1.01052631578947</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">(E6/-0.4177)^2</f>
+        <v>0.0438820750156084</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1911,6 +2419,23 @@
         <f aca="false">A7/95</f>
         <v>-1.26315789473684</v>
       </c>
+      <c r="M7" s="0" t="n">
+        <v>1.51578947368421</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">D7/-0.4177</f>
+        <v>0.0196313143404357</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>-1.26315789473684</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">(E7/-0.4177)^2</f>
+        <v>0.0333672277286684</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1944,6 +2469,17 @@
         <f aca="false">A8/95</f>
         <v>-1.51578947368421</v>
       </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">D8/-0.4177</f>
+        <v>0.0102944697151065</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>-1.51578947368421</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">(E8/-0.4177)^2</f>
+        <v>0.0234763728018197</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1977,6 +2513,23 @@
         <f aca="false">A9/95</f>
         <v>-1.76842105263158</v>
       </c>
+      <c r="M9" s="0" t="n">
+        <v>1.26315789473684</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">D9/-0.4177</f>
+        <v>0.000718218817333014</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>-1.76842105263158</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">(E9/-0.4177)^2</f>
+        <v>0.0165279739953319</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -2010,6 +2563,17 @@
         <f aca="false">A10/95</f>
         <v>-2.02105263157895</v>
       </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">D10/-0.4177</f>
+        <v>0.0119703136222169</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>-2.02105263157895</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">(E10/-0.4177)^2</f>
+        <v>0.0137614187248948</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -2043,6 +2607,23 @@
         <f aca="false">A11/95</f>
         <v>-2.27368421052632</v>
       </c>
+      <c r="M11" s="0" t="n">
+        <v>1.01052631578947</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.0454</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">D11/-0.4177</f>
+        <v>0.00454871917644242</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>-2.27368421052632</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">(E11/-0.4177)^2</f>
+        <v>0.00714201010366687</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -2076,6 +2657,17 @@
         <f aca="false">A12/95</f>
         <v>-2.02105263157895</v>
       </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">D12/-0.4177</f>
+        <v>0.0146037826191046</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>-2.02105263157895</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">(E12/-0.4177)^2</f>
+        <v>0.0134264677418532</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -2109,6 +2701,23 @@
         <f aca="false">A13/95</f>
         <v>-1.76842105263158</v>
       </c>
+      <c r="M13" s="0" t="n">
+        <v>0.757894736842105</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">D13/-0.4177</f>
+        <v>0.00550634426621977</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>-1.76842105263158</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">(E13/-0.4177)^2</f>
+        <v>0.0165279739953319</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -2142,6 +2751,17 @@
         <f aca="false">A14/95</f>
         <v>-1.51578947368421</v>
       </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">D14/-0.4177</f>
+        <v>0.016997845343548</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>-1.51578947368421</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">(E14/-0.4177)^2</f>
+        <v>0.0235497937821887</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -2175,6 +2795,23 @@
         <f aca="false">A15/95</f>
         <v>-1.26315789473684</v>
       </c>
+      <c r="M15" s="0" t="n">
+        <v>0.505263157894737</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">D15/-0.4177</f>
+        <v>0.00478812544888676</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>-1.26315789473684</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">(E15/-0.4177)^2</f>
+        <v>0.0337179977519768</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2208,6 +2845,17 @@
         <f aca="false">A16/95</f>
         <v>-1.01052631578947</v>
       </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">D16/-0.4177</f>
+        <v>0.0150825951639933</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>-1.01052631578947</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">(E16/-0.4177)^2</f>
+        <v>0.0444859496831865</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2241,6 +2889,23 @@
         <f aca="false">A17/95</f>
         <v>-0.757894736842105</v>
       </c>
+      <c r="M17" s="0" t="n">
+        <v>0.252631578947368</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.0519</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <f aca="false">D17/-0.4177</f>
+        <v>0.00718218817333014</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>-0.757894736842105</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <f aca="false">(E17/-0.4177)^2</f>
+        <v>0.0615163501530807</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -2274,6 +2939,17 @@
         <f aca="false">A18/95</f>
         <v>-0.505263157894737</v>
       </c>
+      <c r="P18" s="0" t="n">
+        <f aca="false">D18/-0.4177</f>
+        <v>0.0110126885324395</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>-0.505263157894737</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <f aca="false">(E18/-0.4177)^2</f>
+        <v>0.0744870461260861</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2307,6 +2983,23 @@
         <f aca="false">A19/95</f>
         <v>-0.252631578947368</v>
       </c>
+      <c r="M19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.0546</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <f aca="false">D19/-0.4177</f>
+        <v>-0.00263346899688772</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>-0.252631578947368</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <f aca="false">(E19/-0.4177)^2</f>
+        <v>0.0833615277157896</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -2340,6 +3033,17 @@
         <f aca="false">A20/95</f>
         <v>0</v>
       </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">D20/-0.4177</f>
+        <v>-0.00263346899688772</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">(E20/-0.4177)^2</f>
+        <v>0.0885550447291961</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2373,6 +3077,17 @@
         <f aca="false">A21/95</f>
         <v>0.252631578947368</v>
       </c>
+      <c r="P21" s="0" t="n">
+        <f aca="false">D21/-0.4177</f>
+        <v>0.00837921953555183</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0.252631578947368</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <f aca="false">(E21/-0.4177)^2</f>
+        <v>0.0768578388130355</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -2406,6 +3121,23 @@
         <f aca="false">A22/95</f>
         <v>0.505263157894737</v>
       </c>
+      <c r="M22" s="0" t="n">
+        <v>-0.252631578947368</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.0543</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <f aca="false">D22/-0.4177</f>
+        <v>-0.000957625089777352</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0.505263157894737</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <f aca="false">(E22/-0.4177)^2</f>
+        <v>0.0630698830749394</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -2439,6 +3171,17 @@
         <f aca="false">A23/95</f>
         <v>0.757894736842105</v>
       </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">D23/-0.4177</f>
+        <v>-0.0134067512568829</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>0.757894736842105</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <f aca="false">(E23/-0.4177)^2</f>
+        <v>0.051075783576959</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -2472,6 +3215,23 @@
         <f aca="false">A24/95</f>
         <v>1.01052631578947</v>
       </c>
+      <c r="M24" s="0" t="n">
+        <v>-0.505263157894737</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.0534</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <f aca="false">D24/-0.4177</f>
+        <v>-0.00813981326310749</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>1.01052631578947</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <f aca="false">(E24/-0.4177)^2</f>
+        <v>0.0335423834788695</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -2505,6 +3265,17 @@
         <f aca="false">A25/95</f>
         <v>1.26315789473684</v>
       </c>
+      <c r="P25" s="0" t="n">
+        <f aca="false">D25/-0.4177</f>
+        <v>-0.00622456308355279</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>1.26315789473684</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <f aca="false">(E25/-0.4177)^2</f>
+        <v>0.0260369939719713</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -2538,6 +3309,23 @@
         <f aca="false">A26/95</f>
         <v>1.51578947368421</v>
       </c>
+      <c r="M26" s="0" t="n">
+        <v>-0.757894736842105</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>0.0489</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">D26/-0.4177</f>
+        <v>-0.0069427819008858</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>1.51578947368421</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <f aca="false">(E26/-0.4177)^2</f>
+        <v>0.0172120328561466</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -2571,6 +3359,17 @@
         <f aca="false">A27/95</f>
         <v>1.76842105263158</v>
       </c>
+      <c r="P27" s="0" t="n">
+        <f aca="false">D27/-0.4177</f>
+        <v>-0.0217859707924348</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>1.76842105263158</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <f aca="false">(E27/-0.4177)^2</f>
+        <v>0.0153197661372695</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -2604,6 +3403,23 @@
         <f aca="false">A28/95</f>
         <v>2.02105263157895</v>
       </c>
+      <c r="M28" s="0" t="n">
+        <v>-1.01052631578947</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <f aca="false">D28/-0.4177</f>
+        <v>-0.0160402202537706</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>2.02105263157895</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <f aca="false">(E28/-0.4177)^2</f>
+        <v>0.0102069491553693</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -2637,6 +3453,17 @@
         <f aca="false">A29/95</f>
         <v>2.27368421052632</v>
       </c>
+      <c r="P29" s="0" t="n">
+        <f aca="false">D29/-0.4177</f>
+        <v>-0.0263346899688772</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>2.27368421052632</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <f aca="false">(E29/-0.4177)^2</f>
+        <v>0.0044935244815983</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -2670,6 +3497,23 @@
         <f aca="false">A30/95</f>
         <v>2.02105263157895</v>
       </c>
+      <c r="M30" s="0" t="n">
+        <v>-1.26315789473684</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>0.0419</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <f aca="false">D30/-0.4177</f>
+        <v>-0.0172372516159923</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>2.02105263157895</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <f aca="false">(E30/-0.4177)^2</f>
+        <v>0.00903341709209473</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -2703,6 +3547,17 @@
         <f aca="false">A31/95</f>
         <v>1.76842105263158</v>
       </c>
+      <c r="P31" s="0" t="n">
+        <f aca="false">D31/-0.4177</f>
+        <v>-0.0174766578884367</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>1.76842105263158</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <f aca="false">(E31/-0.4177)^2</f>
+        <v>0.0145590193203785</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -2736,6 +3591,23 @@
         <f aca="false">A32/95</f>
         <v>1.51578947368421</v>
       </c>
+      <c r="M32" s="0" t="n">
+        <v>-1.51578947368421</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>0.0388</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <f aca="false">D32/-0.4177</f>
+        <v>-0.0201101268853244</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>1.51578947368421</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <f aca="false">(E32/-0.4177)^2</f>
+        <v>0.019280888209307</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -2769,6 +3641,17 @@
         <f aca="false">A33/95</f>
         <v>1.26315789473684</v>
       </c>
+      <c r="P33" s="0" t="n">
+        <f aca="false">D33/-0.4177</f>
+        <v>-0.00550634426621977</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>1.26315789473684</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <f aca="false">(E33/-0.4177)^2</f>
+        <v>0.0242157409882051</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -2802,6 +3685,23 @@
         <f aca="false">A34/95</f>
         <v>1.01052631578947</v>
       </c>
+      <c r="M34" s="0" t="n">
+        <v>-1.76842105263158</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <f aca="false">D34/-0.4177</f>
+        <v>-0.0220253770648791</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>1.01052631578947</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <f aca="false">(E34/-0.4177)^2</f>
+        <v>0.0352292319357307</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -2835,6 +3735,17 @@
         <f aca="false">A35/95</f>
         <v>0.757894736842105</v>
       </c>
+      <c r="P35" s="0" t="n">
+        <f aca="false">D35/-0.4177</f>
+        <v>0.0019152501795547</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>0.757894736842105</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <f aca="false">(E35/-0.4177)^2</f>
+        <v>0.0489344816046055</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -2868,6 +3779,23 @@
         <f aca="false">A36/95</f>
         <v>0.505263157894737</v>
       </c>
+      <c r="M36" s="0" t="n">
+        <v>-2.02105263157895</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.0323</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <f aca="false">D36/-0.4177</f>
+        <v>0.000718218817333014</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>0.505263157894737</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <f aca="false">(E36/-0.4177)^2</f>
+        <v>0.0640355323155768</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -2901,6 +3829,17 @@
         <f aca="false">A37/95</f>
         <v>0.252631578947368</v>
       </c>
+      <c r="P37" s="0" t="n">
+        <f aca="false">D37/-0.4177</f>
+        <v>-0.000718218817333014</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>0.252631578947368</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <f aca="false">(E37/-0.4177)^2</f>
+        <v>0.0761955597902693</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -2934,10 +3873,27 @@
         <f aca="false">A38/95</f>
         <v>0</v>
       </c>
+      <c r="M38" s="0" t="n">
+        <v>-2.27368421052632</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <f aca="false">D38/-0.4177</f>
+        <v>-0.0110126885324395</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <f aca="false">(E38/-0.4177)^2</f>
+        <v>0.0901293258125642</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>-0.4177</v>
@@ -2979,7 +3935,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="K2:K38 D3"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="V2:V34 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3244,7 +4200,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">2*STDEV(B2:B7)/SQRT(5)</f>
